--- a/Plotting/production_shares_ammonia_Scope1-3.xlsx
+++ b/Plotting/production_shares_ammonia_Scope1-3.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,16 +526,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1184000.000000004</v>
+        <v>35238095.23809537</v>
       </c>
       <c r="C4" t="n">
-        <v>148574.1629195935</v>
+        <v>236628.9114398787</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1184000.000000039</v>
+        <v>35238095.23809639</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1028596.959802741</v>
+        <v>7887849.739434328</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1176540.360265625</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1177703.294781314</v>
+        <v>21030415.97823774</v>
       </c>
       <c r="G6" t="n">
-        <v>1155650.958798337</v>
+        <v>27515499.01900803</v>
       </c>
     </row>
     <row r="7">
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>22047.71408006548</v>
+        <v>524945.5733348924</v>
       </c>
     </row>
     <row r="8">
@@ -741,6 +741,81 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Electrification + Bio-based feedstock</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>28012865.72061013</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Conventional + Bio-based feedstock</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>375614.1569601232</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Conventional + Bio-based feedstock with CC</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12520820.09792164</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Plotting/production_shares_ammonia_Scope1-3.xlsx
+++ b/Plotting/production_shares_ammonia_Scope1-3.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +481,13 @@
       </c>
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -518,6 +525,21 @@
           <t>2050</t>
         </is>
       </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -535,12 +557,21 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>35238095.23809639</v>
+        <v>35238095.23809297</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>35238095.23809546</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -568,6 +599,15 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -585,13 +625,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>5.079640278523746e-06</v>
       </c>
       <c r="F6" t="n">
-        <v>21030415.97823774</v>
+        <v>21029904.79944998</v>
       </c>
       <c r="G6" t="n">
-        <v>27515499.01900803</v>
+        <v>27515499.01900796</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>21029910.69214556</v>
+      </c>
+      <c r="J6" t="n">
+        <v>27515499.01900796</v>
       </c>
     </row>
     <row r="7">
@@ -616,7 +665,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>524945.5733348924</v>
+        <v>524945.4801632797</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>524945.5239729478</v>
       </c>
     </row>
     <row r="8">
@@ -643,6 +701,15 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -668,6 +735,15 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -693,6 +769,15 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -718,6 +803,15 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -743,6 +837,15 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -768,6 +871,15 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -793,6 +905,15 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -818,9 +939,19 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="H1:J1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
   </mergeCells>

--- a/Plotting/production_shares_ammonia_Scope1-3.xlsx
+++ b/Plotting/production_shares_ammonia_Scope1-3.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +488,27 @@
       </c>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_4</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_5</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="n"/>
+      <c r="S1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -540,6 +561,51 @@
           <t>2050</t>
         </is>
       </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -574,6 +640,33 @@
       <c r="J4" t="n">
         <v>0</v>
       </c>
+      <c r="K4" t="n">
+        <v>35238095.23809672</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>35238095.23810001</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>35238095.23809924</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -608,6 +701,33 @@
       <c r="J5" t="n">
         <v>0</v>
       </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -642,6 +762,33 @@
       <c r="J6" t="n">
         <v>27515499.01900796</v>
       </c>
+      <c r="K6" t="n">
+        <v>1.875326958742353e-06</v>
+      </c>
+      <c r="L6" t="n">
+        <v>21050082.96890682</v>
+      </c>
+      <c r="M6" t="n">
+        <v>27515499.01900796</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-2.29368470520229e-06</v>
+      </c>
+      <c r="O6" t="n">
+        <v>21030622.5940332</v>
+      </c>
+      <c r="P6" t="n">
+        <v>27515499.01900796</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.445282953989949e-06</v>
+      </c>
+      <c r="R6" t="n">
+        <v>21050125.12373882</v>
+      </c>
+      <c r="S6" t="n">
+        <v>27515499.0302716</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -676,6 +823,33 @@
       <c r="J7" t="n">
         <v>524945.5239729478</v>
       </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.001279717154111567</v>
+      </c>
+      <c r="M7" t="n">
+        <v>524944.0002144425</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.899009467186991e-06</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>524945.5253625842</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.775074794745918e-07</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-2.878535474074976e-05</v>
+      </c>
+      <c r="S7" t="n">
+        <v>524953.17614479</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -710,6 +884,33 @@
       <c r="J8" t="n">
         <v>0</v>
       </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -744,6 +945,33 @@
       <c r="J9" t="n">
         <v>0</v>
       </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -778,6 +1006,33 @@
       <c r="J10" t="n">
         <v>0</v>
       </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -812,6 +1067,33 @@
       <c r="J11" t="n">
         <v>0</v>
       </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -846,6 +1128,33 @@
       <c r="J12" t="n">
         <v>0</v>
       </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -880,6 +1189,33 @@
       <c r="J13" t="n">
         <v>0</v>
       </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -914,6 +1250,33 @@
       <c r="J14" t="n">
         <v>0</v>
       </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -948,12 +1311,42 @@
       <c r="J15" t="n">
         <v>0</v>
       </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Plotting/production_shares_ammonia_Scope1-3.xlsx
+++ b/Plotting/production_shares_ammonia_Scope1-3.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,20 @@
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -496,6 +510,36 @@
           <t>2050</t>
         </is>
       </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -504,13 +548,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35238095.23809538</v>
+        <v>1184000.000000033</v>
       </c>
       <c r="C4" t="n">
-        <v>177030.5813758288</v>
+        <v>1184000</v>
       </c>
       <c r="D4" t="n">
-        <v>2.507791954966845e-09</v>
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1183999.999999957</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1183999.999999999</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -523,10 +585,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>7898386.335786061</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>57770.28600465944</v>
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +616,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>7.412782555161258e-09</v>
       </c>
       <c r="C6" t="n">
-        <v>4.666757962657743e-08</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.609570874653594e-07</v>
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1179586.812507884</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1179258.282746874</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1179593.288345533</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1179267.814186228</v>
       </c>
     </row>
     <row r="7">
@@ -552,12 +650,30 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>9.761630826532434e-11</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>554.2455973799724</v>
       </c>
       <c r="D7" t="n">
+        <v>1177607.500706655</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -576,6 +692,24 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -592,6 +726,24 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -608,6 +760,24 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -624,6 +794,24 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -640,6 +828,24 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -651,10 +857,28 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>7.481274671285717e-08</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.0001747967853486767</v>
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -667,10 +891,28 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>283797.5346241681</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.214421290712421e-06</v>
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -683,15 +925,35 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>12661894.64094114</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>27975791.67428654</v>
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
+    <mergeCell ref="H1:J1"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
